--- a/Avaliação-Colaborador/Funcionários.xlsx
+++ b/Avaliação-Colaborador/Funcionários.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E2FF0-52B3-4D49-B713-BC83EF3842F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A9DB4-CBB0-464C-8D86-DA8871D4261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de tarefas pendentes" sheetId="7" r:id="rId1"/>
+    <sheet name="TESTES" sheetId="8" r:id="rId2"/>
+    <sheet name="Datas" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="AtribuídoA">#REF!</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t xml:space="preserve">                            </t>
   </si>
@@ -152,6 +154,54 @@
   </si>
   <si>
     <t>Os recursos do Power BI para extração, modelagem, análise e otimização de dados com a linguagem DAX.</t>
+  </si>
+  <si>
+    <t>Teste 3</t>
+  </si>
+  <si>
+    <t>Teste 4</t>
+  </si>
+  <si>
+    <t>Teste 5</t>
+  </si>
+  <si>
+    <t>Teste 6</t>
+  </si>
+  <si>
+    <t>Teste 7</t>
+  </si>
+  <si>
+    <t>Teste 8</t>
+  </si>
+  <si>
+    <t>Teste 9</t>
+  </si>
+  <si>
+    <t>Teste 10</t>
+  </si>
+  <si>
+    <t>Data T3</t>
+  </si>
+  <si>
+    <t>Data T4</t>
+  </si>
+  <si>
+    <t>Data T5</t>
+  </si>
+  <si>
+    <t>Data T6</t>
+  </si>
+  <si>
+    <t>Data T7</t>
+  </si>
+  <si>
+    <t>Data T8</t>
+  </si>
+  <si>
+    <t>Data T9</t>
+  </si>
+  <si>
+    <t>Data T10</t>
   </si>
 </sst>
 </file>
@@ -166,7 +216,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="167" formatCode="&quot;Concluído&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14996795556505021"/>
@@ -413,8 +463,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="0.79995117038483843"/>
+      <name val="Rockwell"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,8 +663,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="2" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="2" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -707,6 +788,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
@@ -767,7 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -814,6 +913,30 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,10 +995,7 @@
     <cellStyle name="Total" xfId="8" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="13" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <color auto="1"/>
@@ -938,6 +1058,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
     </dxf>
@@ -1028,6 +1153,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
     </dxf>
@@ -1058,6 +1188,156 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="3"/>
       </font>
     </dxf>
@@ -1072,6 +1352,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1207,14 +1490,14 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight18">
     <tableStyle name="Catálogo de endereços" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Lista de tarefas pendentes" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1302,22 +1585,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ListaDeTarefasPendentes" displayName="ListaDeTarefasPendentes" ref="B2:N6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ListaDeTarefasPendentes" displayName="ListaDeTarefasPendentes" ref="B2:N6" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="B2:N6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{CCEBBC50-4FF2-45E4-89F7-0C00106B3AE2}" name="Imagem" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Matrícula" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Data Entrada" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cargo" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{911A84F1-1420-4DA3-9AD8-4884D7961DB2}" name="Teste 1" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{2A0F0C66-EE92-43BC-9AB4-3FED425A217E}" name="Data T1" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{EA41E223-6BC5-45A9-A126-C54BB53D0067}" name="Teste 2" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{90885722-38C8-43A1-B9F6-C163B10A11D2}" name="Observação" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{50E419FF-A076-4B13-BD7B-71DF6C6FAA05}" name="Data T2" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{B8A55B52-5EA7-48C4-AE9C-31822713C756}" name="Teste 22" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Teste2" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{6D08334C-E8C3-4402-B7E3-1FCBEBB77197}" name="Coluna1" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{CCEBBC50-4FF2-45E4-89F7-0C00106B3AE2}" name="Imagem" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Matrícula" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Data Entrada" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cargo" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{911A84F1-1420-4DA3-9AD8-4884D7961DB2}" name="Teste 1" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{2A0F0C66-EE92-43BC-9AB4-3FED425A217E}" name="Data T1" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{EA41E223-6BC5-45A9-A126-C54BB53D0067}" name="Teste 2" dataDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{90885722-38C8-43A1-B9F6-C163B10A11D2}" name="Observação" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{50E419FF-A076-4B13-BD7B-71DF6C6FAA05}" name="Data T2" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{B8A55B52-5EA7-48C4-AE9C-31822713C756}" name="Teste 22" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Teste2" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{6D08334C-E8C3-4402-B7E3-1FCBEBB77197}" name="Coluna1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1561,8 +1844,8 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1"/>
@@ -1651,7 +1934,7 @@
       <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1693,7 +1976,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:23" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +2066,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6" ca="1" si="0">TODAY()-1</f>
-        <v>45034</v>
+        <v>45188</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1817,91 +2100,91 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="expression" dxfId="25" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
       <formula>E3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E6">
-    <cfRule type="expression" dxfId="24" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
       <formula>$B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$E3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>AND(B3&lt;&gt;1,E3=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="47">
+    <cfRule type="expression" dxfId="42" priority="47">
       <formula>AND($B3&lt;&gt;1,$E3&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L6">
-    <cfRule type="expression" dxfId="20" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="109" stopIfTrue="1">
       <formula>$B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="110">
+    <cfRule type="expression" dxfId="40" priority="110">
       <formula>$E3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="111">
+    <cfRule type="expression" dxfId="39" priority="111">
       <formula>AND(F3&lt;&gt;1,O3=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="112">
+    <cfRule type="expression" dxfId="38" priority="112">
       <formula>AND($B3&lt;&gt;1,$E3&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G6 I3:J6">
-    <cfRule type="expression" dxfId="16" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="113" stopIfTrue="1">
       <formula>$B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="114">
+    <cfRule type="expression" dxfId="36" priority="114">
       <formula>$E3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="115">
+    <cfRule type="expression" dxfId="35" priority="115">
       <formula>AND(D3&lt;&gt;1,M3=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="116">
+    <cfRule type="expression" dxfId="34" priority="116">
       <formula>AND($B3&lt;&gt;1,$E3&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N6">
-    <cfRule type="expression" dxfId="12" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="117" stopIfTrue="1">
       <formula>$B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="118">
+    <cfRule type="expression" dxfId="32" priority="118">
       <formula>$E3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="119">
+    <cfRule type="expression" dxfId="31" priority="119">
       <formula>AND(F3&lt;&gt;1,O3=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="120">
+    <cfRule type="expression" dxfId="30" priority="120">
       <formula>AND($B3&lt;&gt;1,$E3&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="expression" dxfId="8" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="121" stopIfTrue="1">
       <formula>$B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="122">
+    <cfRule type="expression" dxfId="28" priority="122">
       <formula>$E3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="123">
+    <cfRule type="expression" dxfId="27" priority="123">
       <formula>AND(E3&lt;&gt;1,N3=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="124">
+    <cfRule type="expression" dxfId="26" priority="124">
       <formula>AND($B3&lt;&gt;1,$E3&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="expression" dxfId="4" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="125" stopIfTrue="1">
       <formula>$B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="24" priority="126">
       <formula>$E3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="23" priority="127">
       <formula>AND(G3&lt;&gt;1,P3=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="128">
+    <cfRule type="expression" dxfId="22" priority="128">
       <formula>AND($B3&lt;&gt;1,$E3&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1959,6 +2242,512 @@
       </x14:conditionalFormattings>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9D9E5F-DD82-4E7D-A532-CB4C8FA9CE8D}">
+  <dimension ref="B3:U8"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" ht="15" thickBot="1"/>
+    <row r="4" spans="2:21" ht="15" thickTop="1">
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="18">
+        <v>202316869</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="19">
+        <v>202391564</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="18">
+        <v>202316856</v>
+      </c>
+      <c r="C7" s="18">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="20">
+        <v>202376266</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="20">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+      <formula>C5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+      <formula>$B5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>$E5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>AND(XFD5&lt;&gt;1,C5=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>AND($B5&lt;&gt;1,$E5&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="expression" dxfId="16" priority="133" stopIfTrue="1">
+      <formula>$B5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="134">
+      <formula>$E5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="136">
+      <formula>AND($B5&lt;&gt;1,$E5&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="expression" dxfId="12" priority="141" stopIfTrue="1">
+      <formula>$B5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="142">
+      <formula>$E5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="144">
+      <formula>AND($B5&lt;&gt;1,$E5&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a descrição na coluna sob este cabeçalho." sqref="B4" xr:uid="{2E54B378-8547-4DEE-8837-770D248CB759}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione a Prioridade na lista. Selecione Cancelar, pressione Alt+Seta para baixo para ver as opções e, depois, Seta para baixo e Enter para fazer a seleção" sqref="C5:C8 E5:E8" xr:uid="{BF7FA49E-B78D-4C7A-87A1-C935045BC96F}">
+      <formula1>"Alta,Média,Baixo"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione a Prioridade na coluna sob este cabeçalho. Pressione Alt+Seta para baixo para ver as opções e, depois, Seta para baixo e Enter para selecionar" sqref="C4 E4 G4 I4 K4 M4 O4 Q4 S4 U4" xr:uid="{3388BC11-9E26-42C9-860F-D6FCA2BAE8A3}"/>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="135" id="{00000000-000E-0000-0100-000003000000}">
+            <xm:f>AND(A5&lt;&gt;1,Datas!F5=TODAY())</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C5:C8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="143" id="{00000000-000E-0000-0100-000003000000}">
+            <xm:f>AND(C5&lt;&gt;1,Datas!G5=TODAY())</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E5:E8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432E2F6C-8379-4154-A560-0E96997EEB25}">
+  <dimension ref="B3:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15" thickBot="1"/>
+    <row r="4" spans="2:12" ht="15" thickTop="1">
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="18">
+        <v>202316869</v>
+      </c>
+      <c r="C5" s="21">
+        <v>42810</v>
+      </c>
+      <c r="D5" s="24">
+        <v>43205</v>
+      </c>
+      <c r="E5" s="24">
+        <v>43534</v>
+      </c>
+      <c r="F5" s="24">
+        <v>43893</v>
+      </c>
+      <c r="G5" s="24">
+        <v>44625</v>
+      </c>
+      <c r="H5" s="24">
+        <v>43205</v>
+      </c>
+      <c r="I5" s="24">
+        <v>44625</v>
+      </c>
+      <c r="J5" s="24">
+        <v>44625</v>
+      </c>
+      <c r="K5" s="24">
+        <v>44247</v>
+      </c>
+      <c r="L5" s="24">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="19">
+        <v>202391564</v>
+      </c>
+      <c r="C6" s="22">
+        <v>44058</v>
+      </c>
+      <c r="D6" s="24">
+        <v>44247</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44611</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44626</v>
+      </c>
+      <c r="G6" s="24">
+        <v>44247</v>
+      </c>
+      <c r="H6" s="24">
+        <v>45110</v>
+      </c>
+      <c r="I6" s="24">
+        <v>44247</v>
+      </c>
+      <c r="J6" s="24">
+        <v>44625</v>
+      </c>
+      <c r="K6" s="24">
+        <v>44626</v>
+      </c>
+      <c r="L6" s="24">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="18">
+        <v>202316856</v>
+      </c>
+      <c r="C7" s="21">
+        <v>44091</v>
+      </c>
+      <c r="D7" s="24">
+        <v>44482</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44625</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44788</v>
+      </c>
+      <c r="G7" s="24">
+        <v>44247</v>
+      </c>
+      <c r="H7" s="24">
+        <v>44611</v>
+      </c>
+      <c r="I7" s="24">
+        <v>44626</v>
+      </c>
+      <c r="J7" s="24">
+        <v>44247</v>
+      </c>
+      <c r="K7" s="24">
+        <v>45110</v>
+      </c>
+      <c r="L7" s="24">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="20">
+        <v>202376266</v>
+      </c>
+      <c r="C8" s="23">
+        <v>45032</v>
+      </c>
+      <c r="D8" s="24">
+        <v>44933</v>
+      </c>
+      <c r="E8" s="24">
+        <v>45110</v>
+      </c>
+      <c r="F8" s="24">
+        <v>44625</v>
+      </c>
+      <c r="G8" s="24">
+        <v>43205</v>
+      </c>
+      <c r="H8" s="24">
+        <v>44247</v>
+      </c>
+      <c r="I8" s="24">
+        <v>43893</v>
+      </c>
+      <c r="J8" s="24">
+        <v>44611</v>
+      </c>
+      <c r="K8" s="24">
+        <v>43893</v>
+      </c>
+      <c r="L8" s="24">
+        <v>44247</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+      <formula>C5=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+      <formula>$B5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$E5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(XFD5&lt;&gt;1,C5=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>AND($B5&lt;&gt;1,$E5&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>$B5=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$E5=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(XFD5&lt;&gt;1,I5=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($B5&lt;&gt;1,$E5&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a descrição na coluna sob este cabeçalho." sqref="B4" xr:uid="{50C6FC90-AD26-4A2C-AA94-BAA1F87691C8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione a Prioridade na coluna sob este cabeçalho. Pressione Alt+Seta para baixo para ver as opções e, depois, Seta para baixo e Enter para selecionar" sqref="C4:L4" xr:uid="{3388BC11-9E26-42C9-860F-D6FCA2BAE8A3}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione a Prioridade na lista. Selecione Cancelar, pressione Alt+Seta para baixo para ver as opções e, depois, Seta para baixo e Enter para fazer a seleção" sqref="C5:C8" xr:uid="{BF7FA49E-B78D-4C7A-87A1-C935045BC96F}">
+      <formula1>"Alta,Média,Baixo"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
